--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H2">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I2">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J2">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>54.310777712568</v>
+        <v>26.02238341119125</v>
       </c>
       <c r="R2">
-        <v>217.243110850272</v>
+        <v>104.089533644765</v>
       </c>
       <c r="S2">
-        <v>0.05974650241730516</v>
+        <v>0.05711562272646278</v>
       </c>
       <c r="T2">
-        <v>0.03726117965869746</v>
+        <v>0.03653332732198896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H3">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I3">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J3">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>43.200745367258</v>
+        <v>16.69488999280333</v>
       </c>
       <c r="R3">
-        <v>259.204472203548</v>
+        <v>100.16933995682</v>
       </c>
       <c r="S3">
-        <v>0.04752451624195719</v>
+        <v>0.0366430323933615</v>
       </c>
       <c r="T3">
-        <v>0.04445832307092541</v>
+        <v>0.03515741838904993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H4">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I4">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J4">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.25495754751</v>
+        <v>0.03209108242</v>
       </c>
       <c r="R4">
-        <v>1.52974528506</v>
+        <v>0.19254649452</v>
       </c>
       <c r="S4">
-        <v>0.0002804751169138828</v>
+        <v>7.0435598746742E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002623793853603559</v>
+        <v>6.757993683598845E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H5">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I5">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J5">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>68.73829892127225</v>
+        <v>16.01857669433625</v>
       </c>
       <c r="R5">
-        <v>274.953195685089</v>
+        <v>64.074306777345</v>
       </c>
       <c r="S5">
-        <v>0.07561801019304627</v>
+        <v>0.03515861589738739</v>
       </c>
       <c r="T5">
-        <v>0.04715951811800468</v>
+        <v>0.02248878960698475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H6">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I6">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J6">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>43.4485925729925</v>
+        <v>0.2329844173691667</v>
       </c>
       <c r="R6">
-        <v>260.691555437955</v>
+        <v>1.397906504215</v>
       </c>
       <c r="S6">
-        <v>0.04779716937454365</v>
+        <v>0.0005113693804803138</v>
       </c>
       <c r="T6">
-        <v>0.04471338513180183</v>
+        <v>0.0004906369939009946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1407585</v>
+        <v>8.1698275</v>
       </c>
       <c r="H7">
-        <v>42.281517</v>
+        <v>16.339655</v>
       </c>
       <c r="I7">
-        <v>0.2318237349109483</v>
+        <v>0.1296158649614687</v>
       </c>
       <c r="J7">
-        <v>0.1746565509177827</v>
+        <v>0.09484980625298997</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.7790862791615001</v>
+        <v>0.0532100865075</v>
       </c>
       <c r="R7">
-        <v>4.674517674969001</v>
+        <v>0.319260519045</v>
       </c>
       <c r="S7">
-        <v>0.0008570615671820935</v>
+        <v>0.0001167889650299212</v>
       </c>
       <c r="T7">
-        <v>0.0008017655529929482</v>
+        <v>0.0001120540042293261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.849895</v>
       </c>
       <c r="I8">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J8">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>94.06841968472001</v>
+        <v>116.6306177769809</v>
       </c>
       <c r="R8">
-        <v>564.41051810832</v>
+        <v>699.783706661885</v>
       </c>
       <c r="S8">
-        <v>0.1034833103261679</v>
+        <v>0.2559884795348719</v>
       </c>
       <c r="T8">
-        <v>0.09680676010475339</v>
+        <v>0.2456099697527958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.849895</v>
       </c>
       <c r="I9">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J9">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
         <v>74.82540330037556</v>
@@ -1013,10 +1013,10 @@
         <v>673.42862970338</v>
       </c>
       <c r="S9">
-        <v>0.08231434583429276</v>
+        <v>0.1642316707785389</v>
       </c>
       <c r="T9">
-        <v>0.1155053665935693</v>
+        <v>0.2363598691960267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>109.849895</v>
       </c>
       <c r="I10">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J10">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>0.4415965779</v>
+        <v>0.1438301291866667</v>
       </c>
       <c r="R10">
-        <v>3.9743692011</v>
+        <v>1.29447116268</v>
       </c>
       <c r="S10">
-        <v>0.0004857940195334485</v>
+        <v>0.0003156877394939587</v>
       </c>
       <c r="T10">
-        <v>0.0006816772428482078</v>
+        <v>0.0004543332748176117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.849895</v>
       </c>
       <c r="I11">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J11">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>119.0574582739525</v>
+        <v>71.79421140051751</v>
       </c>
       <c r="R11">
-        <v>714.344749643715</v>
+        <v>430.765268403105</v>
       </c>
       <c r="S11">
-        <v>0.130973390884013</v>
+        <v>0.1575786132846067</v>
       </c>
       <c r="T11">
-        <v>0.1225232319245644</v>
+        <v>0.151189922737314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>109.849895</v>
       </c>
       <c r="I12">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J12">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>75.25468448449168</v>
+        <v>1.044220896326111</v>
       </c>
       <c r="R12">
-        <v>677.292160360425</v>
+        <v>9.397988066935001</v>
       </c>
       <c r="S12">
-        <v>0.08278659186693541</v>
+        <v>0.002291924064572866</v>
       </c>
       <c r="T12">
-        <v>0.1161680329923591</v>
+        <v>0.00329850429908954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>109.849895</v>
       </c>
       <c r="I13">
-        <v>0.401527897536182</v>
+        <v>0.5809298158927473</v>
       </c>
       <c r="J13">
-        <v>0.4537681034334833</v>
+        <v>0.637665927319842</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N13">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O13">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P13">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q13">
-        <v>1.349408315723889</v>
+        <v>0.2384841220450001</v>
       </c>
       <c r="R13">
-        <v>12.144674841515</v>
+        <v>2.146357098405</v>
       </c>
       <c r="S13">
-        <v>0.001484464605239344</v>
+        <v>0.0005234404906629719</v>
       </c>
       <c r="T13">
-        <v>0.00208303457538887</v>
+        <v>0.0007533280597981429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H14">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I14">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J14">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N14">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O14">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P14">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q14">
-        <v>16.542341755888</v>
+        <v>11.6706993120715</v>
       </c>
       <c r="R14">
-        <v>99.25405053532802</v>
+        <v>70.02419587242899</v>
       </c>
       <c r="S14">
-        <v>0.0181979913257132</v>
+        <v>0.02561561131159084</v>
       </c>
       <c r="T14">
-        <v>0.01702389085838145</v>
+        <v>0.02457708069859508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H15">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I15">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J15">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.130444</v>
       </c>
       <c r="O15">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P15">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q15">
-        <v>13.15837342187245</v>
+        <v>7.487440257694666</v>
       </c>
       <c r="R15">
-        <v>118.425360796852</v>
+        <v>67.38696231925199</v>
       </c>
       <c r="S15">
-        <v>0.01447533661952662</v>
+        <v>0.01643392175835445</v>
       </c>
       <c r="T15">
-        <v>0.02031212233854846</v>
+        <v>0.02365146490179884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H16">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I16">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J16">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N16">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O16">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P16">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q16">
-        <v>0.07765668366</v>
+        <v>0.014392431608</v>
       </c>
       <c r="R16">
-        <v>0.69891015294</v>
+        <v>0.129531884472</v>
       </c>
       <c r="S16">
-        <v>8.542899647961441E-05</v>
+        <v>3.158944670246541E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001198759153837281</v>
+        <v>4.546307941199652E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H17">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I17">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J17">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N17">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O17">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P17">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q17">
-        <v>20.9367731482685</v>
+        <v>7.1841225706695</v>
       </c>
       <c r="R17">
-        <v>125.620638889611</v>
+        <v>43.10473542401699</v>
       </c>
       <c r="S17">
-        <v>0.02303224185324314</v>
+        <v>0.0157681803347252</v>
       </c>
       <c r="T17">
-        <v>0.02154624455609195</v>
+        <v>0.01512889291778036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H18">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I18">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J18">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N18">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O18">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P18">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q18">
-        <v>13.23386438983833</v>
+        <v>0.1044904702443333</v>
       </c>
       <c r="R18">
-        <v>119.104779508545</v>
+        <v>0.940414232199</v>
       </c>
       <c r="S18">
-        <v>0.01455838314343996</v>
+        <v>0.0002293424926795674</v>
       </c>
       <c r="T18">
-        <v>0.020428655114114</v>
+        <v>0.0003300664318511998</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.439194333333334</v>
+        <v>3.664061</v>
       </c>
       <c r="H19">
-        <v>19.317583</v>
+        <v>10.992183</v>
       </c>
       <c r="I19">
-        <v>0.07061043151175238</v>
+        <v>0.05813102367052226</v>
       </c>
       <c r="J19">
-        <v>0.07979709949498723</v>
+        <v>0.06380835016696558</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N19">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O19">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P19">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q19">
-        <v>0.2372993359701111</v>
+        <v>0.023864029293</v>
       </c>
       <c r="R19">
-        <v>2.135694023731</v>
+        <v>0.214776263637</v>
       </c>
       <c r="S19">
-        <v>0.0002610495733498267</v>
+        <v>5.23783264697447E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003663107124676292</v>
+        <v>7.538213752808894E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H20">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I20">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J20">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N20">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O20">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P20">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q20">
-        <v>26.602592926104</v>
+        <v>27.5667234392385</v>
       </c>
       <c r="R20">
-        <v>106.410371704416</v>
+        <v>110.266893756954</v>
       </c>
       <c r="S20">
-        <v>0.02926512838718296</v>
+        <v>0.06050524084904364</v>
       </c>
       <c r="T20">
-        <v>0.01825133124870301</v>
+        <v>0.03870145615360228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H21">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I21">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J21">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.130444</v>
       </c>
       <c r="O21">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P21">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q21">
-        <v>21.160658924674</v>
+        <v>17.685674982492</v>
       </c>
       <c r="R21">
-        <v>126.963953548044</v>
+        <v>106.114049894952</v>
       </c>
       <c r="S21">
-        <v>0.02327853536338222</v>
+        <v>0.03881767184816882</v>
       </c>
       <c r="T21">
-        <v>0.02177664766820964</v>
+        <v>0.0372438917010089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H22">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I22">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J22">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N22">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O22">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P22">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q22">
-        <v>0.12488371803</v>
+        <v>0.033995579112</v>
       </c>
       <c r="R22">
-        <v>0.7493023081799999</v>
+        <v>0.203973474672</v>
       </c>
       <c r="S22">
-        <v>0.0001373827751215358</v>
+        <v>7.461571218313412E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001285190946423823</v>
+        <v>7.159057644188396E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H23">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I23">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J23">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N23">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O23">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P23">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q23">
-        <v>33.66950468492924</v>
+        <v>16.9692247879605</v>
       </c>
       <c r="R23">
-        <v>134.678018739717</v>
+        <v>67.876899151842</v>
       </c>
       <c r="S23">
-        <v>0.03703933598030731</v>
+        <v>0.03724516027739689</v>
       </c>
       <c r="T23">
-        <v>0.0230997513923316</v>
+        <v>0.02382342285035874</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H24">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I24">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J24">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N24">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O24">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P24">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q24">
-        <v>21.2820598436025</v>
+        <v>0.246811250829</v>
       </c>
       <c r="R24">
-        <v>127.692359061615</v>
+        <v>1.480867504974</v>
       </c>
       <c r="S24">
-        <v>0.02341208676149718</v>
+        <v>0.0005417174155128711</v>
       </c>
       <c r="T24">
-        <v>0.02190158257914572</v>
+        <v>0.0005197546322413865</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.3552005</v>
+        <v>8.654679</v>
       </c>
       <c r="H25">
-        <v>20.710401</v>
+        <v>17.309358</v>
       </c>
       <c r="I25">
-        <v>0.1135522765496668</v>
+        <v>0.1373081260955459</v>
       </c>
       <c r="J25">
-        <v>0.08555055408215834</v>
+        <v>0.1004788199422596</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N25">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O25">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P25">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q25">
-        <v>0.3816133005594999</v>
+        <v>0.056367924327</v>
       </c>
       <c r="R25">
-        <v>2.289679803357</v>
+        <v>0.338207545962</v>
       </c>
       <c r="S25">
-        <v>0.0004198072821755566</v>
+        <v>0.0001237199932405174</v>
       </c>
       <c r="T25">
-        <v>0.0003927220991259775</v>
+        <v>0.000118704028606413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H26">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I26">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J26">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N26">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O26">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P26">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q26">
-        <v>19.465809491024</v>
+        <v>4.745142188986834</v>
       </c>
       <c r="R26">
-        <v>116.794856946144</v>
+        <v>28.470853133921</v>
       </c>
       <c r="S26">
-        <v>0.02141405597182482</v>
+        <v>0.01041494726932036</v>
       </c>
       <c r="T26">
-        <v>0.02003246101038187</v>
+        <v>0.009992695329268804</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H27">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I27">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J27">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.130444</v>
       </c>
       <c r="O27">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P27">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q27">
-        <v>15.48380477333289</v>
+        <v>3.044287896060889</v>
       </c>
       <c r="R27">
-        <v>139.354242959996</v>
+        <v>27.398591064548</v>
       </c>
       <c r="S27">
-        <v>0.01703351007446423</v>
+        <v>0.006681801439731809</v>
       </c>
       <c r="T27">
-        <v>0.02390180964915825</v>
+        <v>0.009616352965308878</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H28">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I28">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J28">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N28">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O28">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P28">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q28">
-        <v>0.09138066617999999</v>
+        <v>0.005851760258666667</v>
       </c>
       <c r="R28">
-        <v>0.8224259956199999</v>
+        <v>0.052665842328</v>
       </c>
       <c r="S28">
-        <v>0.000100526551501672</v>
+        <v>1.284382471576278E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001410611487694114</v>
+        <v>1.848464863934812E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H29">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I29">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J29">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N29">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O29">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P29">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q29">
-        <v>24.6368527186255</v>
+        <v>2.9209631907555</v>
       </c>
       <c r="R29">
-        <v>147.821116311753</v>
+        <v>17.525779144533</v>
       </c>
       <c r="S29">
-        <v>0.02710264596648417</v>
+        <v>0.006411120340703597</v>
       </c>
       <c r="T29">
-        <v>0.02535403378585225</v>
+        <v>0.006151195068711054</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H30">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I30">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J30">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N30">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O30">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P30">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q30">
-        <v>15.57263698478167</v>
+        <v>0.04248435551677778</v>
       </c>
       <c r="R30">
-        <v>140.153732863035</v>
+        <v>0.3823591996510001</v>
       </c>
       <c r="S30">
-        <v>0.01713123310771092</v>
+        <v>9.324743176405746E-05</v>
       </c>
       <c r="T30">
-        <v>0.02403893683720051</v>
+        <v>0.0001342003687238756</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.577169666666666</v>
+        <v>1.489755666666667</v>
       </c>
       <c r="H31">
-        <v>22.731509</v>
+        <v>4.469267</v>
       </c>
       <c r="I31">
-        <v>0.08308915558448915</v>
+        <v>0.02363525659706394</v>
       </c>
       <c r="J31">
-        <v>0.09389934990025395</v>
+        <v>0.02594357769750229</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N31">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O31">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P31">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q31">
-        <v>0.2792363822792222</v>
+        <v>0.009702778657000002</v>
       </c>
       <c r="R31">
-        <v>2.513127440513</v>
+        <v>0.08732500791300001</v>
       </c>
       <c r="S31">
-        <v>0.0003071839125033264</v>
+        <v>2.129629082835107E-05</v>
       </c>
       <c r="T31">
-        <v>0.0004310474688916478</v>
+        <v>3.064931685032441E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H32">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I32">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J32">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N32">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O32">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P32">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q32">
-        <v>23.286232667984</v>
+        <v>14.12985266441583</v>
       </c>
       <c r="R32">
-        <v>139.717396007904</v>
+        <v>84.77911598649499</v>
       </c>
       <c r="S32">
-        <v>0.02561684834915711</v>
+        <v>0.0310131213274724</v>
       </c>
       <c r="T32">
-        <v>0.02396409706029291</v>
+        <v>0.02975576012256695</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H33">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I33">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J33">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>6.130444</v>
       </c>
       <c r="O33">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P33">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q33">
-        <v>18.52270673375956</v>
+        <v>9.065131818228886</v>
       </c>
       <c r="R33">
-        <v>166.704360603836</v>
+        <v>81.58618636405998</v>
       </c>
       <c r="S33">
-        <v>0.02037656224516754</v>
+        <v>0.01989674199761983</v>
       </c>
       <c r="T33">
-        <v>0.02859285666659861</v>
+        <v>0.02863510621118918</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H34">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I34">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J34">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N34">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O34">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P34">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q34">
-        <v>0.10931533338</v>
+        <v>0.01742508590666667</v>
       </c>
       <c r="R34">
-        <v>0.98383800042</v>
+        <v>0.15682577316</v>
       </c>
       <c r="S34">
-        <v>0.0001202562199459226</v>
+        <v>3.824571396459247E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001687462693073353</v>
+        <v>5.504268395448247E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H35">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I35">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J35">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N35">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O35">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P35">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q35">
-        <v>29.4721616831455</v>
+        <v>8.697901533772498</v>
       </c>
       <c r="R35">
-        <v>176.832970098873</v>
+        <v>52.187409202635</v>
       </c>
       <c r="S35">
-        <v>0.03242189954569152</v>
+        <v>0.01909072104061086</v>
       </c>
       <c r="T35">
-        <v>0.03033009904271003</v>
+        <v>0.01831672826004953</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H36">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I36">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J36">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N36">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O36">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P36">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q36">
-        <v>18.62897344438167</v>
+        <v>0.1265078389827778</v>
       </c>
       <c r="R36">
-        <v>167.660760999435</v>
+        <v>1.138570550845</v>
       </c>
       <c r="S36">
-        <v>0.02049346471923382</v>
+        <v>0.0002776676482359792</v>
       </c>
       <c r="T36">
-        <v>0.02875689688323234</v>
+        <v>0.0003996153038321317</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.064289666666667</v>
+        <v>4.436121666666666</v>
       </c>
       <c r="H37">
-        <v>27.192869</v>
+        <v>13.308365</v>
       </c>
       <c r="I37">
-        <v>0.09939650390696157</v>
+        <v>0.07037991278265199</v>
       </c>
       <c r="J37">
-        <v>0.1123283421713345</v>
+        <v>0.07725351862044044</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N37">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O37">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P37">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q37">
-        <v>0.3340402242258889</v>
+        <v>0.028892460415</v>
       </c>
       <c r="R37">
-        <v>3.006362018033</v>
+        <v>0.260032143735</v>
       </c>
       <c r="S37">
-        <v>0.0003674728277656542</v>
+        <v>6.34150547483174E-05</v>
       </c>
       <c r="T37">
-        <v>0.0005156462491932301</v>
+        <v>9.126603884815285E-05</v>
       </c>
     </row>
   </sheetData>
